--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 09:03:58</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:48:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:48:12</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:39:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:39:05</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:59:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:59:48</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:21:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:21:52</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:31:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:31:57</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:40:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:40:44</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:49:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:49:51</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:58:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:58:05</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:22:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:22:11</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:36:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:36:02</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:44:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:44:39</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:54:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:54:03</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:09:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:09:00</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:24:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:24:02</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:33:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:33:29</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:42:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:42:18</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:51:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:51:18</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:00:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:00:18</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:27:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:27:00</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:40:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:40:42</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:48:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:48:47</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:57:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:57:51</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:15:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:15:27</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:25:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:25:02</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:34:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:34:48</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:43:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:43:16</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:52:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:52:04</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:11:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:11:13</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:30:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:30:28</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:42:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:42:22</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:51:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:51:23</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:00:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:00:20</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:22:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:22:14</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:30:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:30:09</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:48:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:48:17</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:59:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:59:44</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:17:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:17:52</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:32:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:32:23</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:42:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:42:13</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:51:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:51:11</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:00:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:00:01</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:19:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:19:49</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:26:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:26:03</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:35:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:35:22</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:44:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:44:20</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:53:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:53:35</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 09:16:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 09:16:10</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 09:52:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 09:52:55</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 10:15:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 10:15:39</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 10:32:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 10:32:48</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 10:41:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 10:41:58</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 10:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 10:51:03</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:24:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8744,7 +8744,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.370.000,00</t>
+    <t>1.385.037,00</t>
   </si>
   <si>
     <t>Fortuna</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:24:39</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:39:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:39:54</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:49:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:49:36</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:58:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:58:04</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:25:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:25:26</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:43:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:43:31</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 12:53:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 12:53:10</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:12:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:12:59</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:42:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:42:09</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 01:56:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 01:56:24</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:15:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:15:13</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:30:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:30:27</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:39:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:39:40</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:48:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:48:28</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 02:57:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 02:57:39</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:20:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:20:24</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:35:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:35:57</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:45:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:45:37</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 03:54:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 03:54:27</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:08:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:08:50</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:20:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:20:49</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:29:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:29:30</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:38:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:38:48</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:47:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:47:07</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 04:55:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 04:55:53</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:13:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47410,7 +47410,7 @@
         <v>46</v>
       </c>
       <c r="Q592" s="0" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="R592" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:13:49</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:27:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:27:46</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:37:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:37:14</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:45:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:45:45</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 05:54:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 05:54:34</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:10:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:10:11</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:24:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:24:34</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:34:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:34:32</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:43:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:43:16</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 06:51:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 06:51:58</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:06:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:06:03</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:24:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:24:32</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:35:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:35:13</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:44:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:44:16</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 07:53:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 07:53:20</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:07:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:07:26</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:23:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:23:49</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:33:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:33:26</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:42:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-10.xlsx
+++ b/sigbm_download_2023-01-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 08:42:09</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 08:51:10</t>
   </si>
   <si>
     <t>ID Barragem</t>
